--- a/content/posts/06_2022_yks_puan_hesaplama2/ieuhukuk.xlsx
+++ b/content/posts/06_2022_yks_puan_hesaplama2/ieuhukuk.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25505"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DevRSA\D3\content\posts\06_2022_yks_puan_hesaplama2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83FE9DCE-B891-408F-958C-25A45EDFB0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C50C66-39EA-4A30-ABF5-3767DCBB02F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{3B31F444-AFB9-49C4-820D-03D4A2F3D465}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" activeTab="1" xr2:uid="{3B31F444-AFB9-49C4-820D-03D4A2F3D465}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="i50" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>obp</t>
   </si>
@@ -437,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BD876D-E46E-4327-B1BA-C4F645F76A43}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,4 +733,1614 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704DDBEC-B03D-4069-ADD1-8DF7657A9507}">
+  <dimension ref="A1:C145"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>361.2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>328.80599999999998</v>
+      </c>
+      <c r="C2" s="3">
+        <v>82513</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>435.41950000000003</v>
+      </c>
+      <c r="B3" s="4">
+        <v>328.81099999999998</v>
+      </c>
+      <c r="C3" s="3">
+        <v>82505</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>421.85</v>
+      </c>
+      <c r="B4" s="4">
+        <v>328.87400000000002</v>
+      </c>
+      <c r="C4" s="3">
+        <v>82389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>456.8</v>
+      </c>
+      <c r="B5" s="4">
+        <v>328.95100000000002</v>
+      </c>
+      <c r="C5" s="3">
+        <v>82240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>368.00900000000001</v>
+      </c>
+      <c r="B6" s="4">
+        <v>329.11200000000002</v>
+      </c>
+      <c r="C6" s="3">
+        <v>81914</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>446.3</v>
+      </c>
+      <c r="B7" s="4">
+        <v>329.3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>81543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>467.78149999999999</v>
+      </c>
+      <c r="B8" s="4">
+        <v>329.51299999999998</v>
+      </c>
+      <c r="C8" s="3">
+        <v>81165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>389.05</v>
+      </c>
+      <c r="B9" s="4">
+        <v>329.53300000000002</v>
+      </c>
+      <c r="C9" s="3">
+        <v>81116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>452.39499999999998</v>
+      </c>
+      <c r="B10" s="4">
+        <v>329.553</v>
+      </c>
+      <c r="C10" s="3">
+        <v>81081</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>447.35</v>
+      </c>
+      <c r="B11" s="4">
+        <v>329.77</v>
+      </c>
+      <c r="C11" s="3">
+        <v>80658</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>465.24400000000003</v>
+      </c>
+      <c r="B12" s="4">
+        <v>329.78899999999999</v>
+      </c>
+      <c r="C12" s="3">
+        <v>80613</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>462.25150000000002</v>
+      </c>
+      <c r="B13" s="4">
+        <v>329.79599999999999</v>
+      </c>
+      <c r="C13" s="3">
+        <v>80602</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>445.29349999999999</v>
+      </c>
+      <c r="B14" s="4">
+        <v>329.93700000000001</v>
+      </c>
+      <c r="C14" s="3">
+        <v>80325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>441.40949999999998</v>
+      </c>
+      <c r="B15" s="4">
+        <v>330.154</v>
+      </c>
+      <c r="C15" s="3">
+        <v>79884</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>417.3</v>
+      </c>
+      <c r="B16" s="4">
+        <v>330.161</v>
+      </c>
+      <c r="C16" s="3">
+        <v>79870</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>415.78149999999999</v>
+      </c>
+      <c r="B17" s="4">
+        <v>330.19900000000001</v>
+      </c>
+      <c r="C17" s="3">
+        <v>79789</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>439.8</v>
+      </c>
+      <c r="B18" s="4">
+        <v>330.303</v>
+      </c>
+      <c r="C18" s="3">
+        <v>79604</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>393.28050000000002</v>
+      </c>
+      <c r="B19" s="4">
+        <v>330.41800000000001</v>
+      </c>
+      <c r="C19" s="3">
+        <v>79394</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>469.9</v>
+      </c>
+      <c r="B20" s="4">
+        <v>330.71199999999999</v>
+      </c>
+      <c r="C20" s="3">
+        <v>78871</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>472.24400000000003</v>
+      </c>
+      <c r="B21" s="4">
+        <v>330.75</v>
+      </c>
+      <c r="C21" s="3">
+        <v>78799</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>387</v>
+      </c>
+      <c r="B22" s="4">
+        <v>330.89800000000002</v>
+      </c>
+      <c r="C22" s="3">
+        <v>78531</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>451.47899999999998</v>
+      </c>
+      <c r="B23" s="4">
+        <v>330.97300000000001</v>
+      </c>
+      <c r="C23" s="3">
+        <v>78392</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>431.5</v>
+      </c>
+      <c r="B24" s="4">
+        <v>331.15800000000002</v>
+      </c>
+      <c r="C24" s="3">
+        <v>78025</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>460.988</v>
+      </c>
+      <c r="B25" s="4">
+        <v>331.31700000000001</v>
+      </c>
+      <c r="C25" s="3">
+        <v>77721</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>453.28300000000002</v>
+      </c>
+      <c r="B26" s="4">
+        <v>331.726</v>
+      </c>
+      <c r="C26" s="3">
+        <v>76965</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>468.07049999999998</v>
+      </c>
+      <c r="B27" s="4">
+        <v>331.74700000000001</v>
+      </c>
+      <c r="C27" s="3">
+        <v>76929</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>406.70850000000002</v>
+      </c>
+      <c r="B28" s="4">
+        <v>331.87700000000001</v>
+      </c>
+      <c r="C28" s="3">
+        <v>76695</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>456.50900000000001</v>
+      </c>
+      <c r="B29" s="4">
+        <v>331.97399999999999</v>
+      </c>
+      <c r="C29" s="3">
+        <v>76513</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>464.666</v>
+      </c>
+      <c r="B30" s="4">
+        <v>332.101</v>
+      </c>
+      <c r="C30" s="3">
+        <v>76271</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>413.3</v>
+      </c>
+      <c r="B31" s="4">
+        <v>332.11799999999999</v>
+      </c>
+      <c r="C31" s="3">
+        <v>76235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>387.23849999999999</v>
+      </c>
+      <c r="B32" s="4">
+        <v>332.34</v>
+      </c>
+      <c r="C32" s="3">
+        <v>75823</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>416.01650000000001</v>
+      </c>
+      <c r="B33" s="4">
+        <v>332.62200000000001</v>
+      </c>
+      <c r="C33" s="3">
+        <v>75284</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>466.08350000000002</v>
+      </c>
+      <c r="B34" s="4">
+        <v>332.78199999999998</v>
+      </c>
+      <c r="C34" s="3">
+        <v>75010</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>445.96100000000001</v>
+      </c>
+      <c r="B35" s="4">
+        <v>332.87700000000001</v>
+      </c>
+      <c r="C35" s="3">
+        <v>74827</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>459.44900000000001</v>
+      </c>
+      <c r="B36" s="4">
+        <v>333.00700000000001</v>
+      </c>
+      <c r="C36" s="3">
+        <v>74567</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>398.74349999999998</v>
+      </c>
+      <c r="B37" s="4">
+        <v>333.07499999999999</v>
+      </c>
+      <c r="C37" s="3">
+        <v>74450</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>427.714</v>
+      </c>
+      <c r="B38" s="4">
+        <v>333.09800000000001</v>
+      </c>
+      <c r="C38" s="3">
+        <v>74402</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>432.63400000000001</v>
+      </c>
+      <c r="B39" s="4">
+        <v>333.101</v>
+      </c>
+      <c r="C39" s="3">
+        <v>74396</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>428.74799999999999</v>
+      </c>
+      <c r="B40" s="4">
+        <v>333.48899999999998</v>
+      </c>
+      <c r="C40" s="3">
+        <v>73721</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>370.5</v>
+      </c>
+      <c r="B41" s="4">
+        <v>333.86599999999999</v>
+      </c>
+      <c r="C41" s="3">
+        <v>73070</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>445.78899999999999</v>
+      </c>
+      <c r="B42" s="4">
+        <v>333.88200000000001</v>
+      </c>
+      <c r="C42" s="3">
+        <v>73042</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>400.3125</v>
+      </c>
+      <c r="B43" s="4">
+        <v>333.90600000000001</v>
+      </c>
+      <c r="C43" s="3">
+        <v>73005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>482.54050000000001</v>
+      </c>
+      <c r="B44" s="4">
+        <v>334.40600000000001</v>
+      </c>
+      <c r="C44" s="3">
+        <v>72132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>443.2</v>
+      </c>
+      <c r="B45" s="4">
+        <v>334.61700000000002</v>
+      </c>
+      <c r="C45" s="3">
+        <v>71804</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>425.43450000000001</v>
+      </c>
+      <c r="B46" s="4">
+        <v>334.76299999999998</v>
+      </c>
+      <c r="C46" s="3">
+        <v>71535</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>456.09350000000001</v>
+      </c>
+      <c r="B47" s="4">
+        <v>334.78500000000003</v>
+      </c>
+      <c r="C47" s="3">
+        <v>71503</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>407.21050000000002</v>
+      </c>
+      <c r="B48" s="4">
+        <v>334.88299999999998</v>
+      </c>
+      <c r="C48" s="3">
+        <v>71321</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>489.85300000000001</v>
+      </c>
+      <c r="B49" s="4">
+        <v>335.01600000000002</v>
+      </c>
+      <c r="C49" s="3">
+        <v>71095</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>476.55950000000001</v>
+      </c>
+      <c r="B50" s="4">
+        <v>335.23</v>
+      </c>
+      <c r="C50" s="3">
+        <v>70720</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>456.01650000000001</v>
+      </c>
+      <c r="B51" s="4">
+        <v>335.33199999999999</v>
+      </c>
+      <c r="C51" s="3">
+        <v>70540</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>418.19200000000001</v>
+      </c>
+      <c r="B52" s="4">
+        <v>335.38200000000001</v>
+      </c>
+      <c r="C52" s="3">
+        <v>70453</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>438.79649999999998</v>
+      </c>
+      <c r="B53" s="4">
+        <v>335.49099999999999</v>
+      </c>
+      <c r="C53" s="3">
+        <v>70277</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>429.96600000000001</v>
+      </c>
+      <c r="B54" s="4">
+        <v>335.59199999999998</v>
+      </c>
+      <c r="C54" s="3">
+        <v>70099</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>467.91300000000001</v>
+      </c>
+      <c r="B55" s="4">
+        <v>335.76100000000002</v>
+      </c>
+      <c r="C55" s="3">
+        <v>69782</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>441.15</v>
+      </c>
+      <c r="B56" s="4">
+        <v>335.89299999999997</v>
+      </c>
+      <c r="C56" s="3">
+        <v>69530</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>461.12049999999999</v>
+      </c>
+      <c r="B57" s="4">
+        <v>335.93799999999999</v>
+      </c>
+      <c r="C57" s="3">
+        <v>69465</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>397.85</v>
+      </c>
+      <c r="B58" s="4">
+        <v>336.03199999999998</v>
+      </c>
+      <c r="C58" s="3">
+        <v>69325</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>441.74200000000002</v>
+      </c>
+      <c r="B59" s="4">
+        <v>336.25599999999997</v>
+      </c>
+      <c r="C59" s="3">
+        <v>68966</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>433.56049999999999</v>
+      </c>
+      <c r="B60" s="4">
+        <v>336.37400000000002</v>
+      </c>
+      <c r="C60" s="3">
+        <v>68742</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>444.322</v>
+      </c>
+      <c r="B61" s="4">
+        <v>336.54599999999999</v>
+      </c>
+      <c r="C61" s="3">
+        <v>68478</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>468.08300000000003</v>
+      </c>
+      <c r="B62" s="4">
+        <v>336.73500000000001</v>
+      </c>
+      <c r="C62" s="3">
+        <v>68119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>432.42099999999999</v>
+      </c>
+      <c r="B63" s="4">
+        <v>336.98099999999999</v>
+      </c>
+      <c r="C63" s="3">
+        <v>67703</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>441.1705</v>
+      </c>
+      <c r="B64" s="4">
+        <v>337.03399999999999</v>
+      </c>
+      <c r="C64" s="3">
+        <v>67614</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>463.267</v>
+      </c>
+      <c r="B65" s="4">
+        <v>337.24599999999998</v>
+      </c>
+      <c r="C65" s="3">
+        <v>67255</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>404.39049999999997</v>
+      </c>
+      <c r="B66" s="4">
+        <v>337.28500000000003</v>
+      </c>
+      <c r="C66" s="3">
+        <v>67198</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>438.9</v>
+      </c>
+      <c r="B67" s="4">
+        <v>337.49700000000001</v>
+      </c>
+      <c r="C67" s="3">
+        <v>66841</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>432.08600000000001</v>
+      </c>
+      <c r="B68" s="4">
+        <v>337.57100000000003</v>
+      </c>
+      <c r="C68" s="3">
+        <v>66731</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>483.99349999999998</v>
+      </c>
+      <c r="B69" s="4">
+        <v>337.99799999999999</v>
+      </c>
+      <c r="C69" s="3">
+        <v>66025</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>401.45</v>
+      </c>
+      <c r="B70" s="4">
+        <v>338.11399999999998</v>
+      </c>
+      <c r="C70" s="3">
+        <v>65823</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>400.91</v>
+      </c>
+      <c r="B71" s="4">
+        <v>338.35500000000002</v>
+      </c>
+      <c r="C71" s="3">
+        <v>65470</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>460.58249999999998</v>
+      </c>
+      <c r="B72" s="4">
+        <v>338.416</v>
+      </c>
+      <c r="C72" s="3">
+        <v>65380</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>418.10550000000001</v>
+      </c>
+      <c r="B73" s="4">
+        <v>338.55099999999999</v>
+      </c>
+      <c r="C73" s="3">
+        <v>65153</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>446.55599999999998</v>
+      </c>
+      <c r="B74" s="4">
+        <v>338.61399999999998</v>
+      </c>
+      <c r="C74" s="3">
+        <v>65039</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>416.55</v>
+      </c>
+      <c r="B75" s="4">
+        <v>338.71699999999998</v>
+      </c>
+      <c r="C75" s="3">
+        <v>64867</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>366.83199999999999</v>
+      </c>
+      <c r="B76" s="4">
+        <v>338.839</v>
+      </c>
+      <c r="C76" s="3">
+        <v>64674</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>440.85050000000001</v>
+      </c>
+      <c r="B77" s="4">
+        <v>338.86099999999999</v>
+      </c>
+      <c r="C77" s="3">
+        <v>64638</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>463.45</v>
+      </c>
+      <c r="B78" s="4">
+        <v>338.947</v>
+      </c>
+      <c r="C78" s="3">
+        <v>64504</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>472.92250000000001</v>
+      </c>
+      <c r="B79" s="4">
+        <v>339.27699999999999</v>
+      </c>
+      <c r="C79" s="3">
+        <v>63969</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>424.70549999999997</v>
+      </c>
+      <c r="B80" s="4">
+        <v>339.483</v>
+      </c>
+      <c r="C80" s="3">
+        <v>63622</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>434.93900000000002</v>
+      </c>
+      <c r="B81" s="4">
+        <v>339.65300000000002</v>
+      </c>
+      <c r="C81" s="3">
+        <v>63384</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>438.226</v>
+      </c>
+      <c r="B82" s="4">
+        <v>339.71600000000001</v>
+      </c>
+      <c r="C82" s="3">
+        <v>63287</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>442.83249999999998</v>
+      </c>
+      <c r="B83" s="4">
+        <v>339.75099999999998</v>
+      </c>
+      <c r="C83" s="3">
+        <v>63220</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>470.8415</v>
+      </c>
+      <c r="B84" s="4">
+        <v>339.83600000000001</v>
+      </c>
+      <c r="C84" s="3">
+        <v>63085</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>414.9</v>
+      </c>
+      <c r="B85" s="4">
+        <v>340.04300000000001</v>
+      </c>
+      <c r="C85" s="3">
+        <v>62691</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>490.89100000000002</v>
+      </c>
+      <c r="B86" s="4">
+        <v>340.35700000000003</v>
+      </c>
+      <c r="C86" s="3">
+        <v>62222</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>391.05</v>
+      </c>
+      <c r="B87" s="4">
+        <v>340.38099999999997</v>
+      </c>
+      <c r="C87" s="3">
+        <v>62173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>428.25</v>
+      </c>
+      <c r="B88" s="4">
+        <v>340.43700000000001</v>
+      </c>
+      <c r="C88" s="3">
+        <v>62075</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>403.07549999999998</v>
+      </c>
+      <c r="B89" s="4">
+        <v>340.471</v>
+      </c>
+      <c r="C89" s="3">
+        <v>62025</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>437.85399999999998</v>
+      </c>
+      <c r="B90" s="4">
+        <v>341.149</v>
+      </c>
+      <c r="C90" s="3">
+        <v>60980</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>422.09249999999997</v>
+      </c>
+      <c r="B91" s="4">
+        <v>341.97500000000002</v>
+      </c>
+      <c r="C91" s="3">
+        <v>59693</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>466.34100000000001</v>
+      </c>
+      <c r="B92" s="4">
+        <v>342.06099999999998</v>
+      </c>
+      <c r="C92" s="3">
+        <v>59554</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>442.91550000000001</v>
+      </c>
+      <c r="B93" s="4">
+        <v>342.16</v>
+      </c>
+      <c r="C93" s="3">
+        <v>59396</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>418.858</v>
+      </c>
+      <c r="B94" s="4">
+        <v>342.34699999999998</v>
+      </c>
+      <c r="C94" s="3">
+        <v>59101</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>346.9</v>
+      </c>
+      <c r="B95" s="4">
+        <v>342.375</v>
+      </c>
+      <c r="C95" s="3">
+        <v>59050</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>439.76900000000001</v>
+      </c>
+      <c r="B96" s="4">
+        <v>342.55900000000003</v>
+      </c>
+      <c r="C96" s="3">
+        <v>58769</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>457.83249999999998</v>
+      </c>
+      <c r="B97" s="4">
+        <v>342.911</v>
+      </c>
+      <c r="C97" s="3">
+        <v>58205</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>443.76600000000002</v>
+      </c>
+      <c r="B98" s="4">
+        <v>343.20600000000002</v>
+      </c>
+      <c r="C98" s="3">
+        <v>57796</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>429.01249999999999</v>
+      </c>
+      <c r="B99" s="4">
+        <v>343.29500000000002</v>
+      </c>
+      <c r="C99" s="3">
+        <v>57656</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>440.3</v>
+      </c>
+      <c r="B100" s="4">
+        <v>343.935</v>
+      </c>
+      <c r="C100" s="3">
+        <v>56642</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>451.92950000000002</v>
+      </c>
+      <c r="B101" s="4">
+        <v>343.98700000000002</v>
+      </c>
+      <c r="C101" s="3">
+        <v>56568</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>438.6</v>
+      </c>
+      <c r="B102" s="4">
+        <v>344.584</v>
+      </c>
+      <c r="C102" s="3">
+        <v>55742</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>430.86599999999999</v>
+      </c>
+      <c r="B103" s="4">
+        <v>344.73099999999999</v>
+      </c>
+      <c r="C103" s="3">
+        <v>55547</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>371.1</v>
+      </c>
+      <c r="B104" s="4">
+        <v>344.73899999999998</v>
+      </c>
+      <c r="C104" s="3">
+        <v>55534</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>459.02600000000001</v>
+      </c>
+      <c r="B105" s="4">
+        <v>344.75599999999997</v>
+      </c>
+      <c r="C105" s="3">
+        <v>55510</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>459.245</v>
+      </c>
+      <c r="B106" s="4">
+        <v>346.11</v>
+      </c>
+      <c r="C106" s="3">
+        <v>53525</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>459.18150000000003</v>
+      </c>
+      <c r="B107" s="4">
+        <v>346.16899999999998</v>
+      </c>
+      <c r="C107" s="3">
+        <v>53444</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>402.1</v>
+      </c>
+      <c r="B108" s="4">
+        <v>347.20400000000001</v>
+      </c>
+      <c r="C108" s="3">
+        <v>51971</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>411.70800000000003</v>
+      </c>
+      <c r="B109" s="4">
+        <v>347.63400000000001</v>
+      </c>
+      <c r="C109" s="3">
+        <v>51384</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>490.666</v>
+      </c>
+      <c r="B110" s="4">
+        <v>347.86599999999999</v>
+      </c>
+      <c r="C110" s="3">
+        <v>51052</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>401.95</v>
+      </c>
+      <c r="B111" s="4">
+        <v>347.92399999999998</v>
+      </c>
+      <c r="C111" s="3">
+        <v>50976</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>470.3</v>
+      </c>
+      <c r="B112" s="4">
+        <v>348.18400000000003</v>
+      </c>
+      <c r="C112" s="3">
+        <v>50621</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>490.55</v>
+      </c>
+      <c r="B113" s="4">
+        <v>348.875</v>
+      </c>
+      <c r="C113" s="3">
+        <v>49631</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>470.5025</v>
+      </c>
+      <c r="B114" s="4">
+        <v>349.96600000000001</v>
+      </c>
+      <c r="C114" s="3">
+        <v>48178</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>473.85950000000003</v>
+      </c>
+      <c r="B115" s="4">
+        <v>350.00299999999999</v>
+      </c>
+      <c r="C115" s="3">
+        <v>48118</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>439.15699999999998</v>
+      </c>
+      <c r="B116" s="4">
+        <v>350.31900000000002</v>
+      </c>
+      <c r="C116" s="3">
+        <v>47712</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>429.88600000000002</v>
+      </c>
+      <c r="B117" s="4">
+        <v>350.46899999999999</v>
+      </c>
+      <c r="C117" s="3">
+        <v>47507</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>467.03750000000002</v>
+      </c>
+      <c r="B118" s="4">
+        <v>350.87299999999999</v>
+      </c>
+      <c r="C118" s="3">
+        <v>46955</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>462.4</v>
+      </c>
+      <c r="B119" s="4">
+        <v>350.94400000000002</v>
+      </c>
+      <c r="C119" s="3">
+        <v>46860</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>262.10000000000002</v>
+      </c>
+      <c r="B120" s="4">
+        <v>351.24400000000003</v>
+      </c>
+      <c r="C120" s="3">
+        <v>46456</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>459.32799999999997</v>
+      </c>
+      <c r="B121" s="4">
+        <v>352.524</v>
+      </c>
+      <c r="C121" s="3">
+        <v>44736</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>444.01900000000001</v>
+      </c>
+      <c r="B122" s="4">
+        <v>352.83</v>
+      </c>
+      <c r="C122" s="3">
+        <v>44341</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>414.70150000000001</v>
+      </c>
+      <c r="B123" s="4">
+        <v>352.86</v>
+      </c>
+      <c r="C123" s="3">
+        <v>44311</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>407.55450000000002</v>
+      </c>
+      <c r="B124" s="4">
+        <v>353.04500000000002</v>
+      </c>
+      <c r="C124" s="3">
+        <v>44087</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>420.25</v>
+      </c>
+      <c r="B125" s="4">
+        <v>353.08100000000002</v>
+      </c>
+      <c r="C125" s="3">
+        <v>44039</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>415.58150000000001</v>
+      </c>
+      <c r="B126" s="4">
+        <v>354.12200000000001</v>
+      </c>
+      <c r="C126" s="3">
+        <v>42767</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>421.48050000000001</v>
+      </c>
+      <c r="B127" s="4">
+        <v>354.81299999999999</v>
+      </c>
+      <c r="C127" s="3">
+        <v>41871</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>446.1465</v>
+      </c>
+      <c r="B128" s="4">
+        <v>355.50900000000001</v>
+      </c>
+      <c r="C128" s="3">
+        <v>40991</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>488.21850000000001</v>
+      </c>
+      <c r="B129" s="4">
+        <v>355.79500000000002</v>
+      </c>
+      <c r="C129" s="3">
+        <v>40667</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>422.09449999999998</v>
+      </c>
+      <c r="B130" s="4">
+        <v>356.25900000000001</v>
+      </c>
+      <c r="C130" s="3">
+        <v>40089</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>454.995</v>
+      </c>
+      <c r="B131" s="4">
+        <v>356.40100000000001</v>
+      </c>
+      <c r="C131" s="3">
+        <v>39945</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>401.52350000000001</v>
+      </c>
+      <c r="B132" s="4">
+        <v>356.52</v>
+      </c>
+      <c r="C132" s="3">
+        <v>39824</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>350.05</v>
+      </c>
+      <c r="B133" s="4">
+        <v>356.58100000000002</v>
+      </c>
+      <c r="C133" s="3">
+        <v>39737</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>378.8775</v>
+      </c>
+      <c r="B134" s="4">
+        <v>356.99799999999999</v>
+      </c>
+      <c r="C134" s="3">
+        <v>39228</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>374.7</v>
+      </c>
+      <c r="B135" s="4">
+        <v>358.29199999999997</v>
+      </c>
+      <c r="C135" s="3">
+        <v>37651</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>441.70749999999998</v>
+      </c>
+      <c r="B136" s="4">
+        <v>358.30200000000002</v>
+      </c>
+      <c r="C136" s="3">
+        <v>37641</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>480.83449999999999</v>
+      </c>
+      <c r="B137" s="4">
+        <v>359.202</v>
+      </c>
+      <c r="C137" s="3">
+        <v>36570</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>432.62150000000003</v>
+      </c>
+      <c r="B138" s="4">
+        <v>359.22199999999998</v>
+      </c>
+      <c r="C138" s="3">
+        <v>36546</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>416.0915</v>
+      </c>
+      <c r="B139" s="4">
+        <v>359.505</v>
+      </c>
+      <c r="C139" s="3">
+        <v>36231</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>457.05</v>
+      </c>
+      <c r="B140" s="4">
+        <v>359.93299999999999</v>
+      </c>
+      <c r="C140" s="3">
+        <v>35735</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>434.18900000000002</v>
+      </c>
+      <c r="B141" s="4">
+        <v>360.38200000000001</v>
+      </c>
+      <c r="C141" s="3">
+        <v>35241</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>451.75</v>
+      </c>
+      <c r="B142" s="4">
+        <v>361.69499999999999</v>
+      </c>
+      <c r="C142" s="3">
+        <v>33819</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>427.28750000000002</v>
+      </c>
+      <c r="B143" s="4">
+        <v>362.09500000000003</v>
+      </c>
+      <c r="C143" s="3">
+        <v>33418</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>454.18650000000002</v>
+      </c>
+      <c r="B144" s="4">
+        <v>362.12400000000002</v>
+      </c>
+      <c r="C144" s="3">
+        <v>33373</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>482.512</v>
+      </c>
+      <c r="B145" s="4">
+        <v>372.065</v>
+      </c>
+      <c r="C145" s="3">
+        <v>23922</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>